--- a/calc-reg.xlsx
+++ b/calc-reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inaba/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inaba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756D4E5F-FDDB-3E43-AC51-126339C5A83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4E9BD6-3497-204C-9203-32BE66AFFB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="1580" windowWidth="28300" windowHeight="17440" xr2:uid="{754A11D7-809D-D045-A9CB-C95F5697DB63}"/>
+    <workbookView xWindow="2220" yWindow="16880" windowWidth="28300" windowHeight="17440" xr2:uid="{754A11D7-809D-D045-A9CB-C95F5697DB63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,9 +284,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -368,9 +365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -408,7 +405,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -514,7 +511,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -656,7 +653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,7 +664,7 @@
   <dimension ref="B2:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -680,7 +677,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>432.98</v>
       </c>
       <c r="M2" t="s">
@@ -691,7 +688,7 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -735,26 +732,26 @@
       <c r="K4" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <f>C2</f>
         <v>432.98</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>29.18</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>51.18</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>145.18</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>433.18</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <v>432.98</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <v>462.125</v>
       </c>
     </row>
@@ -783,26 +780,26 @@
       <c r="K5" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="9" t="str">
+      <c r="L5" s="8" t="str">
         <f>C13</f>
         <v>5179</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -828,26 +825,26 @@
       <c r="I6">
         <v>2</v>
       </c>
-      <c r="L6" s="9" t="str">
+      <c r="L6" s="8" t="str">
         <f>C15</f>
         <v>F0B9</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -873,26 +870,26 @@
       <c r="I7">
         <v>3</v>
       </c>
-      <c r="L7" s="9" t="str">
+      <c r="L7" s="8" t="str">
         <f>C22</f>
         <v>0000</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -914,7 +911,7 @@
         <v>52</v>
       </c>
       <c r="H8">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -922,26 +919,26 @@
       <c r="K8" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="9" t="str">
+      <c r="L8" s="8" t="str">
         <f>C18</f>
         <v>5180</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -968,26 +965,26 @@
       <c r="I9">
         <v>5</v>
       </c>
-      <c r="L9" s="9" t="str">
+      <c r="L9" s="8" t="str">
         <f>C20</f>
         <v>8AC8</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1014,26 +1011,26 @@
       <c r="I10">
         <v>6</v>
       </c>
-      <c r="L10" s="9" t="str">
+      <c r="L10" s="8" t="str">
         <f>C22</f>
         <v>0000</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1074,7 +1071,7 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7" t="str">
+      <c r="C13" s="6" t="str">
         <f>DEC2HEX(C12,4)</f>
         <v>5179</v>
       </c>
@@ -1092,7 +1089,7 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="str">
+      <c r="C15" s="6" t="str">
         <f>DEC2HEX(C14,4)</f>
         <v>F0B9</v>
       </c>
@@ -1119,7 +1116,7 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="7" t="str">
+      <c r="C18" s="6" t="str">
         <f>DEC2HEX(C17,4)</f>
         <v>5180</v>
       </c>
@@ -1137,7 +1134,7 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="7" t="str">
+      <c r="C20" s="6" t="str">
         <f>DEC2HEX(C19,4)</f>
         <v>8AC8</v>
       </c>
@@ -1155,7 +1152,7 @@
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="7" t="str">
+      <c r="C22" s="6" t="str">
         <f>DEC2HEX(C21*2^13,4)</f>
         <v>0000</v>
       </c>
